--- a/src/main/resources/templates/exceltemplates/Health_Post_V1.xlsx
+++ b/src/main/resources/templates/exceltemplates/Health_Post_V1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\DGA_Maharastra_Checklist_r1\Health Post\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DGA_Maharastra\Xforms\Mail Template\Mailtemplate\Health Post\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D5E41-EE7A-4E96-BA1A-E4394F557DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69397A9A-9D21-46C0-A6D7-CCDA99C1951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="zwPThczVl55S3nwr1EW1imPQa0VmofY9NOXtJjntNQCUS25oVaTVsqCEWF/nJMuwh69M9dP+msfJhKxKbVEUrA==" workbookSaltValue="kH9cOJCQNsPBeLLILX1RNA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="891" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -349,9 +349,6 @@
     <t>max_b</t>
   </si>
   <si>
-    <t>sec_b</t>
-  </si>
-  <si>
     <t>rmrks_b</t>
   </si>
   <si>
@@ -361,21 +358,12 @@
     <t>max_d</t>
   </si>
   <si>
-    <t>sec_d</t>
-  </si>
-  <si>
     <t>max_e</t>
   </si>
   <si>
-    <t>sec_e</t>
-  </si>
-  <si>
     <t>max_g</t>
   </si>
   <si>
-    <t>sec_g</t>
-  </si>
-  <si>
     <t>rmrks_f</t>
   </si>
   <si>
@@ -412,9 +400,6 @@
     <t>max_k</t>
   </si>
   <si>
-    <t>sec_k</t>
-  </si>
-  <si>
     <t>bg_h</t>
   </si>
   <si>
@@ -448,9 +433,6 @@
     <t>max_h</t>
   </si>
   <si>
-    <t>sec_h</t>
-  </si>
-  <si>
     <t>rmrks_h</t>
   </si>
   <si>
@@ -508,9 +490,6 @@
     <t>max_c</t>
   </si>
   <si>
-    <t>sec_c</t>
-  </si>
-  <si>
     <t>rmrks_d</t>
   </si>
   <si>
@@ -619,9 +598,6 @@
     <t>max_j</t>
   </si>
   <si>
-    <t>sec_j</t>
-  </si>
-  <si>
     <t>eg_h</t>
   </si>
   <si>
@@ -670,9 +646,6 @@
     <t>max_hf</t>
   </si>
   <si>
-    <t>sec_hf</t>
-  </si>
-  <si>
     <t>C.1. HR available</t>
   </si>
   <si>
@@ -898,9 +871,6 @@
     <t>max_i</t>
   </si>
   <si>
-    <t>sec_i</t>
-  </si>
-  <si>
     <t>H.6. Atleast one usable toilet:</t>
   </si>
   <si>
@@ -925,9 +895,6 @@
     <t>q_h.17</t>
   </si>
   <si>
-    <t>sec_f</t>
-  </si>
-  <si>
     <t>max_f</t>
   </si>
   <si>
@@ -1033,9 +1000,6 @@
     <t>max_c.1</t>
   </si>
   <si>
-    <t>sec_c.1</t>
-  </si>
-  <si>
     <t>H.7. Availability of sanitary waste disposal mechanism:</t>
   </si>
   <si>
@@ -1342,9 +1306,6 @@
     <t>max_c.2</t>
   </si>
   <si>
-    <t>sec_c.2</t>
-  </si>
-  <si>
     <t>eg_c.2</t>
   </si>
   <si>
@@ -2119,9 +2080,6 @@
     <t>max_j.1</t>
   </si>
   <si>
-    <t>sec_j.1</t>
-  </si>
-  <si>
     <t>bg_j.2</t>
   </si>
   <si>
@@ -2137,9 +2095,6 @@
     <t>max_j.2</t>
   </si>
   <si>
-    <t>sec_j.2</t>
-  </si>
-  <si>
     <t>eg_j.2</t>
   </si>
   <si>
@@ -2158,9 +2113,6 @@
     <t>max_j.3</t>
   </si>
   <si>
-    <t>sec_j.3</t>
-  </si>
-  <si>
     <t>eg_j.3</t>
   </si>
   <si>
@@ -2176,9 +2128,6 @@
     <t>max_j.4</t>
   </si>
   <si>
-    <t>sec_j.4</t>
-  </si>
-  <si>
     <t>eg_j.4</t>
   </si>
   <si>
@@ -2197,9 +2146,6 @@
     <t>max_j.5</t>
   </si>
   <si>
-    <t>sec_j.5</t>
-  </si>
-  <si>
     <t>eg_j.5</t>
   </si>
   <si>
@@ -2215,9 +2161,6 @@
     <t>max_j.6</t>
   </si>
   <si>
-    <t>sec_j.6</t>
-  </si>
-  <si>
     <t>eg_j.6</t>
   </si>
   <si>
@@ -2245,9 +2188,6 @@
     <t>max_j.7</t>
   </si>
   <si>
-    <t>sec_j.7</t>
-  </si>
-  <si>
     <t>eg_j.7</t>
   </si>
   <si>
@@ -2438,9 +2378,6 @@
   </si>
   <si>
     <t>max_l</t>
-  </si>
-  <si>
-    <t>sec_l</t>
   </si>
   <si>
     <t>rmrks_l</t>
@@ -3606,6 +3543,69 @@
   </si>
   <si>
     <t xml:space="preserve">Overall secured score for health facility: </t>
+  </si>
+  <si>
+    <t>calc_b</t>
+  </si>
+  <si>
+    <t>calc_c.1</t>
+  </si>
+  <si>
+    <t>calc_c.2</t>
+  </si>
+  <si>
+    <t>calc_c</t>
+  </si>
+  <si>
+    <t>calc_d</t>
+  </si>
+  <si>
+    <t>calc_e</t>
+  </si>
+  <si>
+    <t>calc_f</t>
+  </si>
+  <si>
+    <t>calc_g</t>
+  </si>
+  <si>
+    <t>calc_h</t>
+  </si>
+  <si>
+    <t>calc_i</t>
+  </si>
+  <si>
+    <t>calc_j.1</t>
+  </si>
+  <si>
+    <t>calc_j.2</t>
+  </si>
+  <si>
+    <t>calc_j.3</t>
+  </si>
+  <si>
+    <t>calc_j.4</t>
+  </si>
+  <si>
+    <t>calc_j.5</t>
+  </si>
+  <si>
+    <t>calc_j.6</t>
+  </si>
+  <si>
+    <t>calc_j.7</t>
+  </si>
+  <si>
+    <t>calc_j</t>
+  </si>
+  <si>
+    <t>calc_k</t>
+  </si>
+  <si>
+    <t>calc_l</t>
+  </si>
+  <si>
+    <t>calc_hf</t>
   </si>
 </sst>
 </file>
@@ -4462,15 +4462,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D436"/>
+      <selection pane="bottomLeft" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="10" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="10" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="10" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="64.5546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9.109375" style="10"/>
@@ -4484,10 +4484,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1">
@@ -4510,7 +4510,7 @@
         <v>60</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D3" s="65"/>
     </row>
@@ -4543,7 +4543,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>3</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>49</v>
@@ -4576,19 +4576,19 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>50</v>
@@ -4600,19 +4600,19 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>1156</v>
+        <v>1135</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1157</v>
+        <v>1136</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>1158</v>
+        <v>1137</v>
       </c>
       <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>51</v>
@@ -4666,7 +4666,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>870</v>
+        <v>849</v>
       </c>
       <c r="D16" s="65"/>
     </row>
@@ -4678,7 +4678,7 @@
         <v>96</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>868</v>
+        <v>847</v>
       </c>
       <c r="D17" s="65"/>
     </row>
@@ -4690,7 +4690,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D18" s="65"/>
     </row>
@@ -4702,7 +4702,7 @@
         <v>97</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D19" s="65"/>
     </row>
@@ -4714,7 +4714,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
       <c r="D20" s="65"/>
     </row>
@@ -4726,7 +4726,7 @@
         <v>90</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D21" s="65"/>
     </row>
@@ -4738,7 +4738,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D22" s="65"/>
     </row>
@@ -4750,7 +4750,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="65" t="s">
-        <v>869</v>
+        <v>848</v>
       </c>
       <c r="D23" s="65"/>
     </row>
@@ -4774,7 +4774,7 @@
         <v>94</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="D25" s="65"/>
     </row>
@@ -4795,7 +4795,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -4805,7 +4805,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" s="69" t="s">
         <v>7</v>
@@ -4820,7 +4820,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D29" s="65"/>
     </row>
@@ -4832,7 +4832,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D30" s="65"/>
     </row>
@@ -4844,7 +4844,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D31" s="65"/>
     </row>
@@ -4856,7 +4856,7 @@
         <v>56</v>
       </c>
       <c r="C32" s="65" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D32" s="65"/>
     </row>
@@ -4865,10 +4865,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C33" s="71" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D33" s="65"/>
     </row>
@@ -4877,10 +4877,10 @@
         <v>5</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C34" s="71" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D34" s="65"/>
     </row>
@@ -4889,10 +4889,10 @@
         <v>5</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="D35" s="65"/>
     </row>
@@ -4901,10 +4901,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D36" s="65"/>
     </row>
@@ -4913,10 +4913,10 @@
         <v>5</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C37" s="71" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D37" s="65"/>
     </row>
@@ -4925,10 +4925,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C38" s="71" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D38" s="65"/>
     </row>
@@ -4937,10 +4937,10 @@
         <v>5</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
       <c r="D39" s="72"/>
     </row>
@@ -4949,10 +4949,10 @@
         <v>5</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D40" s="65"/>
     </row>
@@ -4961,10 +4961,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D41" s="65"/>
     </row>
@@ -4976,7 +4976,7 @@
         <v>102</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="D42" s="73"/>
     </row>
@@ -4985,10 +4985,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>103</v>
+        <v>1166</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="D43" s="73"/>
     </row>
@@ -4997,7 +4997,7 @@
         <v>14</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="65" t="s">
         <v>23</v>
@@ -5009,7 +5009,7 @@
         <v>33</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C45" s="69"/>
       <c r="D45" s="70"/>
@@ -5022,7 +5022,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="D46" s="74"/>
     </row>
@@ -5031,10 +5031,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D47" s="76"/>
     </row>
@@ -5046,7 +5046,7 @@
         <v>57</v>
       </c>
       <c r="C48" s="65" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D48" s="65"/>
     </row>
@@ -5058,7 +5058,7 @@
         <v>58</v>
       </c>
       <c r="C49" s="65" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D49" s="65"/>
     </row>
@@ -5070,7 +5070,7 @@
         <v>59</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D50" s="65"/>
     </row>
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D51" s="65"/>
     </row>
@@ -5091,10 +5091,10 @@
         <v>6</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D52" s="65"/>
     </row>
@@ -5103,10 +5103,10 @@
         <v>6</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D53" s="65"/>
     </row>
@@ -5115,10 +5115,10 @@
         <v>6</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D54" s="65"/>
     </row>
@@ -5127,10 +5127,10 @@
         <v>6</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D55" s="65"/>
     </row>
@@ -5139,10 +5139,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D56" s="73"/>
     </row>
@@ -5151,10 +5151,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>331</v>
+        <v>1167</v>
       </c>
       <c r="C57" s="73" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="D57" s="73"/>
     </row>
@@ -5163,7 +5163,7 @@
         <v>33</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C58" s="75"/>
       <c r="D58" s="76"/>
@@ -5173,10 +5173,10 @@
         <v>32</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C59" s="78" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D59" s="79"/>
     </row>
@@ -5185,10 +5185,10 @@
         <v>32</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C60" s="80" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D60" s="81"/>
     </row>
@@ -5197,10 +5197,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C61" s="65" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D61" s="65"/>
     </row>
@@ -5209,10 +5209,10 @@
         <v>5</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C62" s="68" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D62" s="65"/>
     </row>
@@ -5221,10 +5221,10 @@
         <v>5</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C63" s="65" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D63" s="65"/>
     </row>
@@ -5233,10 +5233,10 @@
         <v>5</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C64" s="65" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D64" s="65"/>
     </row>
@@ -5245,7 +5245,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C65" s="81"/>
       <c r="D65" s="81"/>
@@ -5255,10 +5255,10 @@
         <v>32</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D66" s="83"/>
     </row>
@@ -5267,10 +5267,10 @@
         <v>5</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D67" s="65"/>
     </row>
@@ -5279,10 +5279,10 @@
         <v>5</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D68" s="65"/>
     </row>
@@ -5291,10 +5291,10 @@
         <v>5</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D69" s="65"/>
     </row>
@@ -5303,10 +5303,10 @@
         <v>5</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D70" s="65"/>
     </row>
@@ -5315,10 +5315,10 @@
         <v>5</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C71" s="65" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D71" s="65"/>
     </row>
@@ -5327,10 +5327,10 @@
         <v>5</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D72" s="65"/>
     </row>
@@ -5339,10 +5339,10 @@
         <v>5</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C73" s="65" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D73" s="65"/>
     </row>
@@ -5351,7 +5351,7 @@
         <v>33</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C74" s="83"/>
       <c r="D74" s="83"/>
@@ -5361,10 +5361,10 @@
         <v>32</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C75" s="78" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D75" s="79"/>
     </row>
@@ -5373,10 +5373,10 @@
         <v>5</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C76" s="65" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D76" s="65"/>
     </row>
@@ -5385,10 +5385,10 @@
         <v>5</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D77" s="65"/>
     </row>
@@ -5397,10 +5397,10 @@
         <v>5</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D78" s="65"/>
     </row>
@@ -5409,10 +5409,10 @@
         <v>5</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C79" s="65" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D79" s="65"/>
     </row>
@@ -5421,10 +5421,10 @@
         <v>5</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C80" s="65" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D80" s="65"/>
     </row>
@@ -5433,10 +5433,10 @@
         <v>5</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C81" s="65" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D81" s="65"/>
     </row>
@@ -5445,10 +5445,10 @@
         <v>5</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C82" s="65" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D82" s="65"/>
     </row>
@@ -5457,7 +5457,7 @@
         <v>33</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C83" s="79"/>
       <c r="D83" s="79"/>
@@ -5467,10 +5467,10 @@
         <v>32</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C84" s="84" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D84" s="83"/>
     </row>
@@ -5479,10 +5479,10 @@
         <v>5</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C85" s="65" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D85" s="65"/>
     </row>
@@ -5491,10 +5491,10 @@
         <v>5</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C86" s="65" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D86" s="65"/>
     </row>
@@ -5503,10 +5503,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C87" s="65" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D87" s="65"/>
     </row>
@@ -5515,10 +5515,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C88" s="65" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D88" s="65"/>
     </row>
@@ -5527,10 +5527,10 @@
         <v>5</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C89" s="65" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D89" s="65"/>
     </row>
@@ -5539,10 +5539,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C90" s="65" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D90" s="65"/>
     </row>
@@ -5551,10 +5551,10 @@
         <v>5</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C91" s="65" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D91" s="65"/>
     </row>
@@ -5563,7 +5563,7 @@
         <v>33</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C92" s="83"/>
       <c r="D92" s="83"/>
@@ -5573,10 +5573,10 @@
         <v>32</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C93" s="78" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D93" s="79"/>
     </row>
@@ -5585,10 +5585,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C94" s="65" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D94" s="65"/>
     </row>
@@ -5597,10 +5597,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C95" s="65" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="D95" s="65"/>
     </row>
@@ -5609,10 +5609,10 @@
         <v>5</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C96" s="65" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D96" s="65"/>
     </row>
@@ -5621,10 +5621,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C97" s="65" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D97" s="65"/>
     </row>
@@ -5633,10 +5633,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C98" s="65" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D98" s="65"/>
     </row>
@@ -5645,10 +5645,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C99" s="65" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D99" s="65"/>
     </row>
@@ -5657,10 +5657,10 @@
         <v>5</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C100" s="65" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D100" s="65"/>
     </row>
@@ -5669,7 +5669,7 @@
         <v>33</v>
       </c>
       <c r="B101" s="27" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C101" s="79"/>
       <c r="D101" s="79"/>
@@ -5679,10 +5679,10 @@
         <v>32</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C102" s="75" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D102" s="76"/>
     </row>
@@ -5691,10 +5691,10 @@
         <v>5</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C103" s="65" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D103" s="65"/>
     </row>
@@ -5703,10 +5703,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C104" s="65" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D104" s="65"/>
     </row>
@@ -5715,10 +5715,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C105" s="65" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D105" s="65"/>
     </row>
@@ -5727,10 +5727,10 @@
         <v>5</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C106" s="65" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D106" s="65"/>
     </row>
@@ -5739,10 +5739,10 @@
         <v>5</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C107" s="65" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D107" s="65"/>
     </row>
@@ -5751,10 +5751,10 @@
         <v>5</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C108" s="65" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D108" s="65"/>
     </row>
@@ -5763,10 +5763,10 @@
         <v>5</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C109" s="65" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D109" s="65"/>
     </row>
@@ -5775,7 +5775,7 @@
         <v>33</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C110" s="85"/>
       <c r="D110" s="76"/>
@@ -5785,10 +5785,10 @@
         <v>32</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C111" s="78" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D111" s="79"/>
     </row>
@@ -5797,10 +5797,10 @@
         <v>5</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C112" s="65" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="D112" s="65"/>
     </row>
@@ -5809,10 +5809,10 @@
         <v>5</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D113" s="65"/>
     </row>
@@ -5821,10 +5821,10 @@
         <v>5</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C114" s="65" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D114" s="65"/>
     </row>
@@ -5833,10 +5833,10 @@
         <v>5</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C115" s="65" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="D115" s="65"/>
     </row>
@@ -5845,10 +5845,10 @@
         <v>5</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C116" s="65" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D116" s="65"/>
     </row>
@@ -5857,7 +5857,7 @@
         <v>33</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C117" s="86"/>
       <c r="D117" s="79"/>
@@ -5867,10 +5867,10 @@
         <v>32</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C118" s="87" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="D118" s="76"/>
     </row>
@@ -5879,10 +5879,10 @@
         <v>5</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C119" s="68" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D119" s="65"/>
     </row>
@@ -5891,10 +5891,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C120" s="68" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D120" s="65"/>
     </row>
@@ -5903,10 +5903,10 @@
         <v>5</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C121" s="68" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D121" s="65"/>
     </row>
@@ -5915,7 +5915,7 @@
         <v>33</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C122" s="85"/>
       <c r="D122" s="76"/>
@@ -5925,10 +5925,10 @@
         <v>32</v>
       </c>
       <c r="B123" s="27" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C123" s="88" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D123" s="79"/>
     </row>
@@ -5937,10 +5937,10 @@
         <v>5</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C124" s="68" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D124" s="65"/>
     </row>
@@ -5949,10 +5949,10 @@
         <v>5</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C125" s="68" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="D125" s="65"/>
     </row>
@@ -5961,10 +5961,10 @@
         <v>5</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C126" s="68" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="D126" s="65"/>
     </row>
@@ -5973,7 +5973,7 @@
         <v>33</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C127" s="86"/>
       <c r="D127" s="79"/>
@@ -5983,10 +5983,10 @@
         <v>32</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C128" s="87" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D128" s="76"/>
     </row>
@@ -5995,10 +5995,10 @@
         <v>5</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C129" s="65" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D129" s="65"/>
     </row>
@@ -6007,10 +6007,10 @@
         <v>5</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C130" s="65" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D130" s="65"/>
     </row>
@@ -6019,10 +6019,10 @@
         <v>5</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C131" s="65" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D131" s="65"/>
     </row>
@@ -6031,10 +6031,10 @@
         <v>5</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C132" s="65" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D132" s="65"/>
     </row>
@@ -6043,10 +6043,10 @@
         <v>5</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C133" s="65" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D133" s="65"/>
     </row>
@@ -6055,10 +6055,10 @@
         <v>5</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C134" s="65" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D134" s="65"/>
     </row>
@@ -6067,10 +6067,10 @@
         <v>5</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C135" s="65" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D135" s="65"/>
     </row>
@@ -6079,7 +6079,7 @@
         <v>33</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C136" s="85"/>
       <c r="D136" s="76"/>
@@ -6089,10 +6089,10 @@
         <v>32</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C137" s="88" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D137" s="79"/>
     </row>
@@ -6101,10 +6101,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C138" s="65" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D138" s="65"/>
     </row>
@@ -6113,10 +6113,10 @@
         <v>5</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C139" s="65" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D139" s="65"/>
     </row>
@@ -6125,10 +6125,10 @@
         <v>5</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C140" s="65" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D140" s="65"/>
     </row>
@@ -6137,10 +6137,10 @@
         <v>5</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C141" s="65" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D141" s="65"/>
     </row>
@@ -6149,10 +6149,10 @@
         <v>5</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C142" s="65" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D142" s="65"/>
     </row>
@@ -6161,10 +6161,10 @@
         <v>5</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C143" s="65" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="D143" s="65"/>
     </row>
@@ -6173,10 +6173,10 @@
         <v>5</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C144" s="65" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D144" s="65"/>
     </row>
@@ -6185,7 +6185,7 @@
         <v>33</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C145" s="86"/>
       <c r="D145" s="79"/>
@@ -6195,10 +6195,10 @@
         <v>32</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C146" s="87" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="D146" s="76"/>
     </row>
@@ -6207,10 +6207,10 @@
         <v>5</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C147" s="68" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D147" s="65"/>
     </row>
@@ -6219,10 +6219,10 @@
         <v>5</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C148" s="68" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D148" s="65"/>
     </row>
@@ -6231,10 +6231,10 @@
         <v>5</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C149" s="68" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D149" s="65"/>
     </row>
@@ -6243,10 +6243,10 @@
         <v>5</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C150" s="68" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D150" s="65"/>
     </row>
@@ -6255,10 +6255,10 @@
         <v>5</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C151" s="68" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="D151" s="65"/>
     </row>
@@ -6267,10 +6267,10 @@
         <v>5</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C152" s="68" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D152" s="65"/>
     </row>
@@ -6279,10 +6279,10 @@
         <v>5</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C153" s="68" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="D153" s="65"/>
     </row>
@@ -6291,7 +6291,7 @@
         <v>33</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C154" s="85"/>
       <c r="D154" s="76"/>
@@ -6301,10 +6301,10 @@
         <v>32</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C155" s="88" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D155" s="79"/>
     </row>
@@ -6313,10 +6313,10 @@
         <v>5</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C156" s="68" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D156" s="65"/>
     </row>
@@ -6325,10 +6325,10 @@
         <v>5</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C157" s="68" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D157" s="65"/>
     </row>
@@ -6337,10 +6337,10 @@
         <v>5</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C158" s="68" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D158" s="65"/>
     </row>
@@ -6349,10 +6349,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C159" s="68" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D159" s="65"/>
     </row>
@@ -6361,10 +6361,10 @@
         <v>5</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C160" s="68" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D160" s="65"/>
     </row>
@@ -6373,7 +6373,7 @@
         <v>33</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C161" s="79"/>
       <c r="D161" s="79"/>
@@ -6383,10 +6383,10 @@
         <v>4</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C162" s="77" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D162" s="73"/>
     </row>
@@ -6395,10 +6395,10 @@
         <v>4</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>434</v>
+        <v>1168</v>
       </c>
       <c r="C163" s="73" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="D163" s="73"/>
     </row>
@@ -6407,7 +6407,7 @@
         <v>33</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="C164" s="79"/>
       <c r="D164" s="79"/>
@@ -6417,10 +6417,10 @@
         <v>4</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C165" s="77" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D165" s="73"/>
     </row>
@@ -6429,10 +6429,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>156</v>
+        <v>1169</v>
       </c>
       <c r="C166" s="73" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="D166" s="73"/>
     </row>
@@ -6441,7 +6441,7 @@
         <v>14</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C167" s="65" t="s">
         <v>23</v>
@@ -6466,7 +6466,7 @@
         <v>34</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D169" s="70"/>
     </row>
@@ -6475,10 +6475,10 @@
         <v>5</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C170" s="89" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D170" s="64"/>
     </row>
@@ -6487,10 +6487,10 @@
         <v>5</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C171" s="89" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D171" s="64"/>
     </row>
@@ -6499,10 +6499,10 @@
         <v>5</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C172" s="89" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D172" s="64"/>
     </row>
@@ -6511,10 +6511,10 @@
         <v>5</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C173" s="89" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D173" s="64"/>
     </row>
@@ -6523,10 +6523,10 @@
         <v>64</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C174" s="89" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D174" s="64"/>
     </row>
@@ -6535,10 +6535,10 @@
         <v>69</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C175" s="89" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D175" s="64"/>
     </row>
@@ -6547,10 +6547,10 @@
         <v>5</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C176" s="64" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D176" s="64"/>
     </row>
@@ -6559,10 +6559,10 @@
         <v>5</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C177" s="89" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D177" s="64"/>
     </row>
@@ -6571,10 +6571,10 @@
         <v>5</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C178" s="89" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D178" s="64"/>
     </row>
@@ -6583,22 +6583,22 @@
         <v>5</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C179" s="89" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="D179" s="64"/>
     </row>
     <row r="180" spans="1:4" s="7" customFormat="1">
       <c r="A180" s="7" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C180" s="89" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="D180" s="64"/>
     </row>
@@ -6607,10 +6607,10 @@
         <v>5</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C181" s="89" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D181" s="64"/>
     </row>
@@ -6619,10 +6619,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C182" s="89" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="D182" s="64"/>
     </row>
@@ -6631,10 +6631,10 @@
         <v>5</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C183" s="89" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D183" s="64"/>
     </row>
@@ -6643,10 +6643,10 @@
         <v>5</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C184" s="89" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="D184" s="64"/>
     </row>
@@ -6655,10 +6655,10 @@
         <v>5</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C185" s="89" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D185" s="64"/>
     </row>
@@ -6667,10 +6667,10 @@
         <v>5</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C186" s="89" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D186" s="64"/>
     </row>
@@ -6679,10 +6679,10 @@
         <v>5</v>
       </c>
       <c r="B187" s="10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C187" s="89" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D187" s="64"/>
     </row>
@@ -6691,10 +6691,10 @@
         <v>5</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C188" s="89" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="D188" s="64"/>
     </row>
@@ -6703,10 +6703,10 @@
         <v>5</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C189" s="89" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="D189" s="64"/>
     </row>
@@ -6715,10 +6715,10 @@
         <v>5</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C190" s="89" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D190" s="64"/>
     </row>
@@ -6727,10 +6727,10 @@
         <v>5</v>
       </c>
       <c r="B191" s="10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C191" s="89" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="D191" s="64"/>
     </row>
@@ -6739,10 +6739,10 @@
         <v>5</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C192" s="89" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D192" s="64"/>
     </row>
@@ -6751,10 +6751,10 @@
         <v>5</v>
       </c>
       <c r="B193" s="10" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C193" s="89" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D193" s="64"/>
     </row>
@@ -6763,10 +6763,10 @@
         <v>71</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C194" s="89" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D194" s="64"/>
     </row>
@@ -6775,10 +6775,10 @@
         <v>5</v>
       </c>
       <c r="B195" s="10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C195" s="90" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="D195" s="64"/>
     </row>
@@ -6787,10 +6787,10 @@
         <v>5</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C196" s="89" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D196" s="64"/>
     </row>
@@ -6799,10 +6799,10 @@
         <v>5</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C197" s="89" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="D197" s="64"/>
     </row>
@@ -6811,10 +6811,10 @@
         <v>5</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C198" s="89" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D198" s="64"/>
     </row>
@@ -6823,10 +6823,10 @@
         <v>5</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C199" s="89" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="D199" s="64"/>
     </row>
@@ -6835,10 +6835,10 @@
         <v>5</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C200" s="89" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D200" s="64"/>
     </row>
@@ -6847,10 +6847,10 @@
         <v>5</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C201" s="89" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="D201" s="64"/>
     </row>
@@ -6859,10 +6859,10 @@
         <v>5</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C202" s="89" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D202" s="64"/>
     </row>
@@ -6871,10 +6871,10 @@
         <v>5</v>
       </c>
       <c r="B203" s="10" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C203" s="91" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D203" s="64"/>
     </row>
@@ -6883,10 +6883,10 @@
         <v>5</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C204" s="89" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="D204" s="64"/>
     </row>
@@ -6895,10 +6895,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="10" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C205" s="89" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="D205" s="64"/>
     </row>
@@ -6907,10 +6907,10 @@
         <v>5</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C206" s="89" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="D206" s="64"/>
     </row>
@@ -6919,10 +6919,10 @@
         <v>5</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C207" s="89" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D207" s="64"/>
     </row>
@@ -6931,10 +6931,10 @@
         <v>5</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C208" s="89" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="D208" s="64"/>
     </row>
@@ -6943,10 +6943,10 @@
         <v>5</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C209" s="89" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D209" s="64"/>
     </row>
@@ -6955,10 +6955,10 @@
         <v>5</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C210" s="89" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="D210" s="64"/>
     </row>
@@ -6967,10 +6967,10 @@
         <v>5</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C211" s="92" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="D211" s="64"/>
     </row>
@@ -6979,10 +6979,10 @@
         <v>5</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C212" s="89" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D212" s="64"/>
     </row>
@@ -6991,10 +6991,10 @@
         <v>5</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C213" s="92" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="D213" s="64"/>
     </row>
@@ -7003,10 +7003,10 @@
         <v>4</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C214" s="77" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="D214" s="73"/>
     </row>
@@ -7015,10 +7015,10 @@
         <v>4</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>107</v>
+        <v>1170</v>
       </c>
       <c r="C215" s="73" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="D215" s="73"/>
     </row>
@@ -7027,7 +7027,7 @@
         <v>14</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C216" s="65" t="s">
         <v>23</v>
@@ -7052,7 +7052,7 @@
         <v>40</v>
       </c>
       <c r="C218" s="93" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D218" s="94"/>
     </row>
@@ -7061,10 +7061,10 @@
         <v>5</v>
       </c>
       <c r="B219" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C219" s="64" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D219" s="65"/>
     </row>
@@ -7073,10 +7073,10 @@
         <v>5</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C220" s="64" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="D220" s="65"/>
     </row>
@@ -7085,10 +7085,10 @@
         <v>5</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C221" s="64" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D221" s="65"/>
     </row>
@@ -7097,10 +7097,10 @@
         <v>5</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C222" s="64" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D222" s="65"/>
     </row>
@@ -7109,10 +7109,10 @@
         <v>5</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C223" s="64" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D223" s="65"/>
     </row>
@@ -7121,10 +7121,10 @@
         <v>5</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C224" s="64" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="D224" s="65"/>
     </row>
@@ -7133,10 +7133,10 @@
         <v>5</v>
       </c>
       <c r="B225" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C225" s="64" t="s">
         <v>593</v>
-      </c>
-      <c r="C225" s="64" t="s">
-        <v>606</v>
       </c>
       <c r="D225" s="65"/>
     </row>
@@ -7145,10 +7145,10 @@
         <v>5</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C226" s="64" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D226" s="65"/>
     </row>
@@ -7157,10 +7157,10 @@
         <v>5</v>
       </c>
       <c r="B227" s="10" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C227" s="64" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D227" s="65"/>
     </row>
@@ -7169,10 +7169,10 @@
         <v>5</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C228" s="64" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="D228" s="65"/>
     </row>
@@ -7181,10 +7181,10 @@
         <v>5</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C229" s="64" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D229" s="65"/>
     </row>
@@ -7193,10 +7193,10 @@
         <v>5</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="C230" s="64" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D230" s="65"/>
     </row>
@@ -7205,10 +7205,10 @@
         <v>5</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C231" s="64" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D231" s="65"/>
     </row>
@@ -7217,10 +7217,10 @@
         <v>5</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C232" s="64" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D232" s="65"/>
     </row>
@@ -7229,10 +7229,10 @@
         <v>5</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="C233" s="64" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D233" s="65"/>
     </row>
@@ -7241,10 +7241,10 @@
         <v>5</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D234" s="65"/>
     </row>
@@ -7253,10 +7253,10 @@
         <v>5</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C235" s="95" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D235" s="65"/>
     </row>
@@ -7265,10 +7265,10 @@
         <v>4</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C236" s="73" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D236" s="73"/>
     </row>
@@ -7277,10 +7277,10 @@
         <v>4</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>109</v>
+        <v>1171</v>
       </c>
       <c r="C237" s="73" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="D237" s="73"/>
     </row>
@@ -7289,7 +7289,7 @@
         <v>14</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="C238" s="65" t="s">
         <v>23</v>
@@ -7323,10 +7323,10 @@
         <v>5</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C241" s="89" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D241" s="65"/>
     </row>
@@ -7335,10 +7335,10 @@
         <v>5</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C242" s="89" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="D242" s="65"/>
     </row>
@@ -7347,10 +7347,10 @@
         <v>5</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C243" s="89" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D243" s="65"/>
     </row>
@@ -7359,10 +7359,10 @@
         <v>5</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C244" s="89" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D244" s="65"/>
     </row>
@@ -7371,10 +7371,10 @@
         <v>5</v>
       </c>
       <c r="B245" s="10" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C245" s="89" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D245" s="65"/>
     </row>
@@ -7383,10 +7383,10 @@
         <v>5</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C246" s="89" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="D246" s="65"/>
     </row>
@@ -7395,10 +7395,10 @@
         <v>5</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C247" s="89" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D247" s="65"/>
     </row>
@@ -7407,10 +7407,10 @@
         <v>5</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C248" s="89" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D248" s="65"/>
     </row>
@@ -7419,10 +7419,10 @@
         <v>5</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C249" s="89" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D249" s="65"/>
     </row>
@@ -7431,10 +7431,10 @@
         <v>5</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C250" s="89" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D250" s="65"/>
     </row>
@@ -7443,10 +7443,10 @@
         <v>4</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C251" s="77" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D251" s="73"/>
     </row>
@@ -7455,10 +7455,10 @@
         <v>4</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>295</v>
+        <v>1172</v>
       </c>
       <c r="C252" s="73" t="s">
-        <v>1172</v>
+        <v>1151</v>
       </c>
       <c r="D252" s="73"/>
     </row>
@@ -7467,7 +7467,7 @@
         <v>14</v>
       </c>
       <c r="B253" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C253" s="65" t="s">
         <v>23</v>
@@ -7506,7 +7506,7 @@
         <v>44</v>
       </c>
       <c r="C256" s="95" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D256" s="64"/>
     </row>
@@ -7515,10 +7515,10 @@
         <v>5</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C257" s="95" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D257" s="64"/>
     </row>
@@ -7527,10 +7527,10 @@
         <v>5</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C258" s="95" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D258" s="64"/>
     </row>
@@ -7539,10 +7539,10 @@
         <v>5</v>
       </c>
       <c r="B259" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C259" s="89" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D259" s="64"/>
     </row>
@@ -7551,10 +7551,10 @@
         <v>5</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C260" s="89" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D260" s="64"/>
     </row>
@@ -7563,10 +7563,10 @@
         <v>5</v>
       </c>
       <c r="B261" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C261" s="89" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D261" s="64"/>
     </row>
@@ -7575,10 +7575,10 @@
         <v>5</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C262" s="89" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="D262" s="64"/>
     </row>
@@ -7587,10 +7587,10 @@
         <v>5</v>
       </c>
       <c r="B263" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C263" s="89" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D263" s="64"/>
     </row>
@@ -7599,10 +7599,10 @@
         <v>5</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C264" s="89" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D264" s="64"/>
     </row>
@@ -7611,10 +7611,10 @@
         <v>5</v>
       </c>
       <c r="B265" s="10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C265" s="89" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D265" s="64"/>
     </row>
@@ -7623,10 +7623,10 @@
         <v>5</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C266" s="89" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D266" s="64"/>
     </row>
@@ -7635,10 +7635,10 @@
         <v>5</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C267" s="89" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D267" s="64"/>
     </row>
@@ -7647,10 +7647,10 @@
         <v>5</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C268" s="89" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D268" s="64"/>
     </row>
@@ -7659,10 +7659,10 @@
         <v>5</v>
       </c>
       <c r="B269" s="10" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C269" s="89" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D269" s="64"/>
     </row>
@@ -7671,10 +7671,10 @@
         <v>5</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C270" s="89" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="D270" s="64"/>
     </row>
@@ -7683,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C271" s="89" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D271" s="64"/>
     </row>
@@ -7695,10 +7695,10 @@
         <v>5</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C272" s="89" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D272" s="64"/>
     </row>
@@ -7707,10 +7707,10 @@
         <v>5</v>
       </c>
       <c r="B273" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C273" s="89" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D273" s="64"/>
     </row>
@@ -7719,10 +7719,10 @@
         <v>5</v>
       </c>
       <c r="B274" s="10" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C274" s="89" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D274" s="64"/>
     </row>
@@ -7731,10 +7731,10 @@
         <v>5</v>
       </c>
       <c r="B275" s="10" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C275" s="89" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D275" s="64"/>
     </row>
@@ -7743,10 +7743,10 @@
         <v>5</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C276" s="89" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D276" s="64"/>
     </row>
@@ -7755,10 +7755,10 @@
         <v>5</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C277" s="89" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D277" s="64"/>
     </row>
@@ -7767,10 +7767,10 @@
         <v>5</v>
       </c>
       <c r="B278" s="10" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C278" s="89" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D278" s="64"/>
     </row>
@@ -7779,10 +7779,10 @@
         <v>5</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C279" s="89" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D279" s="64"/>
     </row>
@@ -7791,10 +7791,10 @@
         <v>5</v>
       </c>
       <c r="B280" s="10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C280" s="89" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D280" s="64"/>
     </row>
@@ -7803,10 +7803,10 @@
         <v>5</v>
       </c>
       <c r="B281" s="10" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C281" s="89" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D281" s="64"/>
     </row>
@@ -7815,10 +7815,10 @@
         <v>5</v>
       </c>
       <c r="B282" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C282" s="89" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D282" s="64"/>
     </row>
@@ -7827,10 +7827,10 @@
         <v>5</v>
       </c>
       <c r="B283" s="10" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C283" s="89" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D283" s="64"/>
     </row>
@@ -7839,10 +7839,10 @@
         <v>5</v>
       </c>
       <c r="B284" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C284" s="89" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D284" s="64"/>
     </row>
@@ -7851,10 +7851,10 @@
         <v>5</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C285" s="89" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="D285" s="64"/>
     </row>
@@ -7863,10 +7863,10 @@
         <v>4</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C286" s="77" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D286" s="73"/>
     </row>
@@ -7875,10 +7875,10 @@
         <v>4</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>111</v>
+        <v>1173</v>
       </c>
       <c r="C287" s="73" t="s">
-        <v>1173</v>
+        <v>1152</v>
       </c>
       <c r="D287" s="73"/>
     </row>
@@ -7887,7 +7887,7 @@
         <v>14</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C288" s="65" t="s">
         <v>23</v>
@@ -7909,10 +7909,10 @@
         <v>32</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C290" s="98" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D290" s="99"/>
     </row>
@@ -7921,34 +7921,34 @@
         <v>5</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C291" s="89" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D291" s="77"/>
     </row>
     <row r="292" spans="1:4" s="9" customFormat="1">
       <c r="A292" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C292" s="89" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D292" s="77"/>
     </row>
     <row r="293" spans="1:4" s="9" customFormat="1">
       <c r="A293" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C293" s="89" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D293" s="77"/>
     </row>
@@ -7957,70 +7957,70 @@
         <v>5</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C294" s="89" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D294" s="77"/>
     </row>
     <row r="295" spans="1:4" s="9" customFormat="1">
       <c r="A295" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C295" s="89" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D295" s="77"/>
     </row>
     <row r="296" spans="1:4" s="9" customFormat="1">
       <c r="A296" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C296" s="89" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D296" s="77"/>
     </row>
     <row r="297" spans="1:4" s="9" customFormat="1">
       <c r="A297" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C297" s="89" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D297" s="77"/>
     </row>
     <row r="298" spans="1:4" s="9" customFormat="1">
       <c r="A298" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C298" s="90" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D298" s="77"/>
     </row>
     <row r="299" spans="1:4" s="9" customFormat="1">
       <c r="A299" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C299" s="90" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D299" s="77"/>
     </row>
@@ -8029,10 +8029,10 @@
         <v>5</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C300" s="89" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D300" s="77"/>
     </row>
@@ -8041,10 +8041,10 @@
         <v>5</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C301" s="89" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D301" s="77"/>
     </row>
@@ -8053,10 +8053,10 @@
         <v>5</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C302" s="89" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D302" s="64"/>
     </row>
@@ -8065,10 +8065,10 @@
         <v>5</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C303" s="89" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D303" s="64"/>
     </row>
@@ -8077,10 +8077,10 @@
         <v>74</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C304" s="90" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D304" s="64"/>
     </row>
@@ -8089,10 +8089,10 @@
         <v>77</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C305" s="89" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D305" s="64"/>
     </row>
@@ -8101,10 +8101,10 @@
         <v>5</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C306" s="89" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D306" s="64"/>
     </row>
@@ -8113,46 +8113,46 @@
         <v>5</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C307" s="89" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D307" s="64"/>
     </row>
     <row r="308" spans="1:4" s="7" customFormat="1">
       <c r="A308" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="C308" s="89" t="s">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="D308" s="64"/>
     </row>
     <row r="309" spans="1:4" s="7" customFormat="1">
       <c r="A309" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="C309" s="89" t="s">
-        <v>879</v>
+        <v>858</v>
       </c>
       <c r="D309" s="64"/>
     </row>
     <row r="310" spans="1:4" s="7" customFormat="1">
       <c r="A310" s="7" t="s">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>881</v>
+        <v>860</v>
       </c>
       <c r="C310" s="89" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="D310" s="64"/>
     </row>
@@ -8161,10 +8161,10 @@
         <v>4</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C311" s="77" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="D311" s="73"/>
     </row>
@@ -8173,10 +8173,10 @@
         <v>4</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>136</v>
+        <v>1174</v>
       </c>
       <c r="C312" s="73" t="s">
-        <v>1174</v>
+        <v>1153</v>
       </c>
       <c r="D312" s="73"/>
     </row>
@@ -8185,7 +8185,7 @@
         <v>14</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C313" s="65" t="s">
         <v>23</v>
@@ -8197,7 +8197,7 @@
         <v>33</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C314" s="99"/>
       <c r="D314" s="99"/>
@@ -8207,10 +8207,10 @@
         <v>32</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="C315" s="100" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D315" s="100"/>
     </row>
@@ -8219,10 +8219,10 @@
         <v>5</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C316" s="65" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="D316" s="65"/>
     </row>
@@ -8231,10 +8231,10 @@
         <v>5</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C317" s="65" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D317" s="65"/>
     </row>
@@ -8243,10 +8243,10 @@
         <v>5</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="C318" s="65" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D318" s="65"/>
     </row>
@@ -8255,10 +8255,10 @@
         <v>5</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="C319" s="65" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D319" s="65"/>
     </row>
@@ -8267,10 +8267,10 @@
         <v>5</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="C320" s="65" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D320" s="65"/>
     </row>
@@ -8279,10 +8279,10 @@
         <v>5</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C321" s="65" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D321" s="65"/>
     </row>
@@ -8291,10 +8291,10 @@
         <v>5</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="C322" s="65" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D322" s="65"/>
     </row>
@@ -8303,10 +8303,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C323" s="65" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D323" s="65"/>
     </row>
@@ -8315,10 +8315,10 @@
         <v>5</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="C324" s="65" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D324" s="65"/>
     </row>
@@ -8327,10 +8327,10 @@
         <v>5</v>
       </c>
       <c r="B325" s="10" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="C325" s="65" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="D325" s="65"/>
     </row>
@@ -8339,10 +8339,10 @@
         <v>5</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C326" s="65" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="D326" s="65"/>
     </row>
@@ -8351,10 +8351,10 @@
         <v>5</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C327" s="65" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D327" s="65"/>
     </row>
@@ -8363,10 +8363,10 @@
         <v>5</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="C328" s="65" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D328" s="65"/>
     </row>
@@ -8375,10 +8375,10 @@
         <v>5</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="C329" s="64" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
       <c r="D329" s="64"/>
     </row>
@@ -8387,10 +8387,10 @@
         <v>5</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
       <c r="C330" s="64" t="s">
-        <v>840</v>
+        <v>819</v>
       </c>
       <c r="D330" s="64"/>
     </row>
@@ -8399,10 +8399,10 @@
         <v>5</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="C331" s="64" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
       <c r="D331" s="64"/>
     </row>
@@ -8411,10 +8411,10 @@
         <v>5</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
       <c r="C332" s="64" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="D332" s="64"/>
     </row>
@@ -8423,10 +8423,10 @@
         <v>5</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
       <c r="C333" s="64" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
       <c r="D333" s="64"/>
     </row>
@@ -8435,10 +8435,10 @@
         <v>5</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="C334" s="64" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="D334" s="64"/>
     </row>
@@ -8447,10 +8447,10 @@
         <v>5</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="C335" s="64" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="D335" s="64"/>
     </row>
@@ -8459,10 +8459,10 @@
         <v>5</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="C336" s="64" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
       <c r="D336" s="64"/>
     </row>
@@ -8471,10 +8471,10 @@
         <v>5</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
       <c r="C337" s="64" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="D337" s="64"/>
     </row>
@@ -8483,10 +8483,10 @@
         <v>5</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="C338" s="64" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
       <c r="D338" s="64"/>
     </row>
@@ -8495,10 +8495,10 @@
         <v>5</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="C339" s="64" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="D339" s="64"/>
     </row>
@@ -8507,10 +8507,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="C340" s="64" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="D340" s="64"/>
     </row>
@@ -8519,10 +8519,10 @@
         <v>5</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
       <c r="C341" s="64" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
       <c r="D341" s="64"/>
     </row>
@@ -8531,10 +8531,10 @@
         <v>5</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
       <c r="C342" s="64" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="D342" s="64"/>
     </row>
@@ -8543,10 +8543,10 @@
         <v>5</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="C343" s="64" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="D343" s="64"/>
     </row>
@@ -8555,10 +8555,10 @@
         <v>5</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
       <c r="C344" s="64" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="D344" s="64"/>
     </row>
@@ -8567,10 +8567,10 @@
         <v>4</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C345" s="77" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
       <c r="D345" s="73"/>
     </row>
@@ -8579,10 +8579,10 @@
         <v>4</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>286</v>
+        <v>1175</v>
       </c>
       <c r="C346" s="73" t="s">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="D346" s="73"/>
     </row>
@@ -8591,7 +8591,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C347" s="65" t="s">
         <v>23</v>
@@ -8616,7 +8616,7 @@
         <v>35</v>
       </c>
       <c r="C349" s="96" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="D349" s="97"/>
     </row>
@@ -8628,7 +8628,7 @@
         <v>37</v>
       </c>
       <c r="C350" s="65" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="D350" s="65"/>
     </row>
@@ -8637,10 +8637,10 @@
         <v>4</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C351" s="77" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D351" s="73"/>
     </row>
@@ -8649,10 +8649,10 @@
         <v>4</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>693</v>
+        <v>1176</v>
       </c>
       <c r="C352" s="73" t="s">
-        <v>1176</v>
+        <v>1155</v>
       </c>
       <c r="D352" s="73"/>
     </row>
@@ -8661,10 +8661,10 @@
         <v>32</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="C353" s="75" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="D353" s="76"/>
     </row>
@@ -8673,10 +8673,10 @@
         <v>5</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C354" s="65" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="D354" s="65"/>
     </row>
@@ -8685,10 +8685,10 @@
         <v>5</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="C355" s="65" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="D355" s="65"/>
     </row>
@@ -8697,10 +8697,10 @@
         <v>5</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="C356" s="65" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="D356" s="65"/>
     </row>
@@ -8709,10 +8709,10 @@
         <v>4</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="C357" s="77" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D357" s="73"/>
     </row>
@@ -8721,10 +8721,10 @@
         <v>4</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>699</v>
+        <v>1177</v>
       </c>
       <c r="C358" s="73" t="s">
-        <v>1177</v>
+        <v>1156</v>
       </c>
       <c r="D358" s="73"/>
     </row>
@@ -8733,7 +8733,7 @@
         <v>33</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="C359" s="76" t="s">
         <v>29</v>
@@ -8745,10 +8745,10 @@
         <v>32</v>
       </c>
       <c r="B360" s="28" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="C360" s="80" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="D360" s="81"/>
     </row>
@@ -8757,10 +8757,10 @@
         <v>5</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="C361" s="65" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="D361" s="65"/>
     </row>
@@ -8769,10 +8769,10 @@
         <v>5</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="C362" s="65" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="D362" s="65"/>
     </row>
@@ -8781,10 +8781,10 @@
         <v>5</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="C363" s="65" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="D363" s="65"/>
     </row>
@@ -8793,10 +8793,10 @@
         <v>4</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C364" s="77" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D364" s="73"/>
     </row>
@@ -8805,10 +8805,10 @@
         <v>4</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>706</v>
+        <v>1178</v>
       </c>
       <c r="C365" s="73" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="D365" s="73"/>
     </row>
@@ -8817,7 +8817,7 @@
         <v>33</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="C366" s="81" t="s">
         <v>29</v>
@@ -8829,10 +8829,10 @@
         <v>32</v>
       </c>
       <c r="B367" s="35" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="C367" s="101" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="D367" s="102"/>
     </row>
@@ -8841,10 +8841,10 @@
         <v>5</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="C368" s="65" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="D368" s="65"/>
     </row>
@@ -8853,10 +8853,10 @@
         <v>5</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="C369" s="65" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="D369" s="65"/>
     </row>
@@ -8865,10 +8865,10 @@
         <v>4</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="C370" s="77" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D370" s="73"/>
     </row>
@@ -8877,10 +8877,10 @@
         <v>4</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>712</v>
+        <v>1179</v>
       </c>
       <c r="C371" s="73" t="s">
-        <v>1179</v>
+        <v>1158</v>
       </c>
       <c r="D371" s="73"/>
     </row>
@@ -8889,7 +8889,7 @@
         <v>33</v>
       </c>
       <c r="B372" s="35" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="C372" s="102" t="s">
         <v>29</v>
@@ -8901,10 +8901,10 @@
         <v>32</v>
       </c>
       <c r="B373" s="36" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="C373" s="103" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="D373" s="104"/>
     </row>
@@ -8913,10 +8913,10 @@
         <v>5</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C374" s="65" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="D374" s="65"/>
     </row>
@@ -8925,10 +8925,10 @@
         <v>5</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="C375" s="65" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="D375" s="65"/>
     </row>
@@ -8937,10 +8937,10 @@
         <v>5</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C376" s="65" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="D376" s="65"/>
     </row>
@@ -8949,10 +8949,10 @@
         <v>4</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C377" s="77" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D377" s="73"/>
     </row>
@@ -8961,10 +8961,10 @@
         <v>4</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>719</v>
+        <v>1180</v>
       </c>
       <c r="C378" s="73" t="s">
-        <v>1180</v>
+        <v>1159</v>
       </c>
       <c r="D378" s="73"/>
     </row>
@@ -8973,7 +8973,7 @@
         <v>33</v>
       </c>
       <c r="B379" s="36" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="C379" s="104" t="s">
         <v>29</v>
@@ -8985,10 +8985,10 @@
         <v>32</v>
       </c>
       <c r="B380" s="37" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C380" s="105" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="D380" s="106"/>
     </row>
@@ -8997,10 +8997,10 @@
         <v>5</v>
       </c>
       <c r="B381" s="10" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="C381" s="65" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="D381" s="65"/>
     </row>
@@ -9009,10 +9009,10 @@
         <v>5</v>
       </c>
       <c r="B382" s="10" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C382" s="65" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="D382" s="65"/>
     </row>
@@ -9021,10 +9021,10 @@
         <v>4</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="C383" s="77" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D383" s="73"/>
     </row>
@@ -9033,10 +9033,10 @@
         <v>4</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>725</v>
+        <v>1181</v>
       </c>
       <c r="C384" s="73" t="s">
-        <v>1181</v>
+        <v>1160</v>
       </c>
       <c r="D384" s="73"/>
     </row>
@@ -9045,7 +9045,7 @@
         <v>33</v>
       </c>
       <c r="B385" s="37" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="C385" s="106" t="s">
         <v>29</v>
@@ -9057,10 +9057,10 @@
         <v>32</v>
       </c>
       <c r="B386" s="30" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="C386" s="107" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="D386" s="84"/>
     </row>
@@ -9069,10 +9069,10 @@
         <v>5</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="C387" s="65" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="D387" s="65"/>
     </row>
@@ -9081,10 +9081,10 @@
         <v>5</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="C388" s="65" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="D388" s="65"/>
     </row>
@@ -9093,10 +9093,10 @@
         <v>5</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
       <c r="C389" s="65" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="D389" s="65"/>
     </row>
@@ -9105,10 +9105,10 @@
         <v>5</v>
       </c>
       <c r="B390" s="10" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
       <c r="C390" s="65" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="D390" s="65"/>
     </row>
@@ -9117,10 +9117,10 @@
         <v>5</v>
       </c>
       <c r="B391" s="10" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
       <c r="C391" s="65" t="s">
-        <v>872</v>
+        <v>851</v>
       </c>
       <c r="D391" s="65"/>
     </row>
@@ -9129,10 +9129,10 @@
         <v>5</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
       <c r="C392" s="65" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="D392" s="65"/>
     </row>
@@ -9141,10 +9141,10 @@
         <v>4</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
       <c r="C393" s="77" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D393" s="73"/>
     </row>
@@ -9153,10 +9153,10 @@
         <v>4</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>735</v>
+        <v>1182</v>
       </c>
       <c r="C394" s="73" t="s">
-        <v>1182</v>
+        <v>1161</v>
       </c>
       <c r="D394" s="73"/>
     </row>
@@ -9165,7 +9165,7 @@
         <v>33</v>
       </c>
       <c r="B395" s="29" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="C395" s="108"/>
       <c r="D395" s="83"/>
@@ -9175,10 +9175,10 @@
         <v>4</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C396" s="77" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D396" s="73"/>
     </row>
@@ -9187,10 +9187,10 @@
         <v>4</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>193</v>
+        <v>1183</v>
       </c>
       <c r="C397" s="73" t="s">
-        <v>1183</v>
+        <v>1162</v>
       </c>
       <c r="D397" s="73"/>
     </row>
@@ -9199,7 +9199,7 @@
         <v>14</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C398" s="65" t="s">
         <v>23</v>
@@ -9211,7 +9211,7 @@
         <v>33</v>
       </c>
       <c r="B399" s="32" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="C399" s="96"/>
       <c r="D399" s="97"/>
@@ -9224,7 +9224,7 @@
         <v>36</v>
       </c>
       <c r="C400" s="87" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="D400" s="75"/>
     </row>
@@ -9233,10 +9233,10 @@
         <v>5</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="C401" s="65" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="D401" s="65"/>
     </row>
@@ -9245,10 +9245,10 @@
         <v>5</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="C402" s="65" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="D402" s="65"/>
     </row>
@@ -9257,10 +9257,10 @@
         <v>5</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="C403" s="65" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="D403" s="65"/>
     </row>
@@ -9269,10 +9269,10 @@
         <v>5</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="C404" s="64" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="D404" s="65"/>
     </row>
@@ -9281,10 +9281,10 @@
         <v>5</v>
       </c>
       <c r="B405" s="10" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="C405" s="65" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="D405" s="65"/>
     </row>
@@ -9293,10 +9293,10 @@
         <v>5</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="C406" s="65" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="D406" s="65"/>
     </row>
@@ -9305,10 +9305,10 @@
         <v>5</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="C407" s="65" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="D407" s="65"/>
     </row>
@@ -9317,10 +9317,10 @@
         <v>5</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="C408" s="65" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="D408" s="65"/>
     </row>
@@ -9329,10 +9329,10 @@
         <v>5</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="C409" s="65" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="D409" s="65"/>
     </row>
@@ -9341,10 +9341,10 @@
         <v>5</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="C410" s="65" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="D410" s="65"/>
     </row>
@@ -9353,10 +9353,10 @@
         <v>5</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="C411" s="65" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="D411" s="65"/>
     </row>
@@ -9365,10 +9365,10 @@
         <v>4</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C412" s="77" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D412" s="73"/>
     </row>
@@ -9377,10 +9377,10 @@
         <v>4</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>124</v>
+        <v>1184</v>
       </c>
       <c r="C413" s="73" t="s">
-        <v>1184</v>
+        <v>1163</v>
       </c>
       <c r="D413" s="73"/>
     </row>
@@ -9389,7 +9389,7 @@
         <v>14</v>
       </c>
       <c r="B414" s="10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C414" s="65" t="s">
         <v>23</v>
@@ -9401,7 +9401,7 @@
         <v>33</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C415" s="76"/>
       <c r="D415" s="76"/>
@@ -9411,10 +9411,10 @@
         <v>32</v>
       </c>
       <c r="B416" s="39" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="C416" s="109" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="D416" s="109"/>
     </row>
@@ -9423,10 +9423,10 @@
         <v>5</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="C417" s="65" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="D417" s="65"/>
     </row>
@@ -9435,10 +9435,10 @@
         <v>5</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="C418" s="65" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
       <c r="D418" s="65"/>
     </row>
@@ -9447,10 +9447,10 @@
         <v>5</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="C419" s="65" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
       <c r="D419" s="65"/>
     </row>
@@ -9459,10 +9459,10 @@
         <v>5</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="C420" s="65" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="D420" s="65"/>
     </row>
@@ -9471,10 +9471,10 @@
         <v>5</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="C421" s="65" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="D421" s="65"/>
     </row>
@@ -9483,10 +9483,10 @@
         <v>5</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="C422" s="65" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="D422" s="65"/>
     </row>
@@ -9495,10 +9495,10 @@
         <v>5</v>
       </c>
       <c r="B423" s="10" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="C423" s="65" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="D423" s="65"/>
     </row>
@@ -9507,10 +9507,10 @@
         <v>5</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="C424" s="65" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="D424" s="65"/>
     </row>
@@ -9519,10 +9519,10 @@
         <v>5</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="C425" s="65" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
       <c r="D425" s="65"/>
     </row>
@@ -9531,10 +9531,10 @@
         <v>5</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C426" s="110" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="D426" s="65"/>
     </row>
@@ -9543,10 +9543,10 @@
         <v>5</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="C427" s="65" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="D427" s="65"/>
     </row>
@@ -9555,10 +9555,10 @@
         <v>4</v>
       </c>
       <c r="B428" s="11" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="C428" s="77" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="D428" s="73"/>
     </row>
@@ -9567,10 +9567,10 @@
         <v>4</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>800</v>
+        <v>1185</v>
       </c>
       <c r="C429" s="73" t="s">
-        <v>1185</v>
+        <v>1164</v>
       </c>
       <c r="D429" s="73"/>
     </row>
@@ -9579,7 +9579,7 @@
         <v>14</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="C430" s="65" t="s">
         <v>23</v>
@@ -9591,7 +9591,7 @@
         <v>33</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="C431" s="109"/>
       <c r="D431" s="109"/>
@@ -9601,10 +9601,10 @@
         <v>4</v>
       </c>
       <c r="B432" s="11" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C432" s="77" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="D432" s="65"/>
     </row>
@@ -9613,71 +9613,71 @@
         <v>4</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>210</v>
+        <v>1186</v>
       </c>
       <c r="C433" s="111" t="s">
-        <v>1186</v>
+        <v>1165</v>
       </c>
       <c r="D433" s="65"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B434" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C434" s="112" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D434" s="65"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B435" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C435" s="112" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D435" s="65"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B436" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B436" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="C436" s="112" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D436" s="65"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B437" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B438" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9690,7 +9690,7 @@
       <c r="C442" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xw2yMrfXtTTgjdmTwL1und0lb/drbVfGVdN/9sQMNX09YvP7vkCDpYgBWROpRecY1UARUgd5yk1sOAQ1Kb4AYA==" saltValue="nnyBP5m7W9KhiVB6sWuAVg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y6ovEvwcoXB7iqkj/NbJ8MRsYOWWX5QLMTp0P5AU8KdigiIw94mhOemOirrEDMWGzIlDZjdEVq2rfEAcJkGKbg==" saltValue="6sgGraYxpsGc2MxmfouD3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9728,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1159</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1">
@@ -9785,7 +9785,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1">
@@ -9795,24 +9795,24 @@
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1">
       <c r="A11" s="8" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9823,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9834,7 +9834,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9883,93 +9883,93 @@
     </row>
     <row r="21" spans="1:4" s="8" customFormat="1">
       <c r="A21" s="8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="8" customFormat="1"/>
     <row r="24" spans="1:4" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="8" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B25" s="8">
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B26" s="8">
         <v>3</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B29" s="8">
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B30" s="8">
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -9999,25 +9999,25 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B35" s="8">
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -10091,449 +10091,449 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>862</v>
+        <v>841</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>1087</v>
+        <v>1066</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1122</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>1088</v>
+        <v>1067</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>1123</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>1089</v>
+        <v>1068</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1124</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>1090</v>
+        <v>1069</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>1125</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>1091</v>
+        <v>1070</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1128</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>1094</v>
+        <v>1073</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>1129</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>1095</v>
+        <v>1074</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>1130</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>1096</v>
+        <v>1075</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>1131</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1132</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>1098</v>
+        <v>1077</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>1133</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>1100</v>
+        <v>1079</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>1135</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1136</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B66" s="60" t="s">
-        <v>1102</v>
+        <v>1081</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B67" s="60" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>1104</v>
+        <v>1083</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>1138</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B69" s="60" t="s">
-        <v>1105</v>
+        <v>1084</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1139</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B70" s="60" t="s">
-        <v>1106</v>
+        <v>1085</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>1140</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B71" s="60" t="s">
-        <v>1107</v>
+        <v>1086</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B72" s="60" t="s">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B73" s="60" t="s">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B74" s="61" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="C74" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B75" s="60" t="s">
-        <v>1110</v>
+        <v>1089</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1144</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B76" s="60" t="s">
-        <v>1111</v>
+        <v>1090</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>1145</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B77" s="60" t="s">
-        <v>1112</v>
+        <v>1091</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1146</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B78" s="60" t="s">
-        <v>1113</v>
+        <v>1092</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>1147</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B79" s="60" t="s">
-        <v>1114</v>
+        <v>1093</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1148</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B80" s="60" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>1149</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B81" s="60" t="s">
-        <v>1116</v>
+        <v>1095</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1150</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B82" s="60" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>1151</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B83" s="60" t="s">
-        <v>1118</v>
+        <v>1097</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1152</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B84" s="60" t="s">
-        <v>1119</v>
+        <v>1098</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>1153</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B85" s="60" t="s">
-        <v>1120</v>
+        <v>1099</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="15" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="B86" s="60" t="s">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>1155</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="1" customFormat="1">
       <c r="A88" s="3" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1103</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="1" customFormat="1">
@@ -10551,13 +10551,13 @@
         <v>27</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>886</v>
+        <v>865</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I91" s="17"/>
       <c r="J91" s="18"/>
@@ -10567,13 +10567,13 @@
         <v>27</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I92" s="17"/>
       <c r="J92" s="18"/>
@@ -10583,13 +10583,13 @@
         <v>27</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I93" s="17"/>
       <c r="J93" s="18"/>
@@ -10599,13 +10599,13 @@
         <v>27</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I94" s="17"/>
       <c r="J94" s="18"/>
@@ -10615,13 +10615,13 @@
         <v>27</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I95" s="17"/>
       <c r="J95" s="18"/>
@@ -10631,13 +10631,13 @@
         <v>27</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>896</v>
+        <v>875</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I96" s="17"/>
       <c r="J96" s="18"/>
@@ -10647,13 +10647,13 @@
         <v>27</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I97" s="17"/>
       <c r="J97" s="18"/>
@@ -10663,13 +10663,13 @@
         <v>27</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I98" s="17"/>
       <c r="J98" s="18"/>
@@ -10679,13 +10679,13 @@
         <v>27</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="C99" s="41" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I99" s="17"/>
       <c r="J99" s="18"/>
@@ -10695,13 +10695,13 @@
         <v>27</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I100" s="17"/>
       <c r="J100" s="18"/>
@@ -10711,13 +10711,13 @@
         <v>27</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I101" s="17"/>
       <c r="J101" s="18"/>
@@ -10727,13 +10727,13 @@
         <v>27</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="C102" s="45" t="s">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I102" s="17"/>
       <c r="J102" s="18"/>
@@ -10743,13 +10743,13 @@
         <v>27</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>910</v>
+        <v>889</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I103" s="17"/>
       <c r="J103" s="18"/>
@@ -10759,13 +10759,13 @@
         <v>27</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I104" s="18"/>
       <c r="J104" s="18"/>
@@ -10775,13 +10775,13 @@
         <v>27</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>914</v>
+        <v>893</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I105" s="17"/>
       <c r="J105" s="18"/>
@@ -10791,13 +10791,13 @@
         <v>27</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I106" s="17"/>
       <c r="J106" s="18"/>
@@ -10807,13 +10807,13 @@
         <v>27</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="18"/>
@@ -10823,13 +10823,13 @@
         <v>27</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>920</v>
+        <v>899</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="18"/>
@@ -10839,13 +10839,13 @@
         <v>27</v>
       </c>
       <c r="B109" s="42" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="18"/>
@@ -10855,13 +10855,13 @@
         <v>27</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I110" s="17"/>
       <c r="J110" s="18"/>
@@ -10871,13 +10871,13 @@
         <v>27</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>926</v>
+        <v>905</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I111" s="17"/>
       <c r="J111" s="18"/>
@@ -10887,13 +10887,13 @@
         <v>27</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>928</v>
+        <v>907</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I112" s="17"/>
       <c r="J112" s="18"/>
@@ -10903,13 +10903,13 @@
         <v>27</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="18"/>
@@ -10919,13 +10919,13 @@
         <v>27</v>
       </c>
       <c r="B114" s="42" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="18"/>
@@ -10936,1368 +10936,1368 @@
     </row>
     <row r="116" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A116" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>1010</v>
+        <v>989</v>
       </c>
       <c r="C116" s="49" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59" t="s">
-        <v>887</v>
+        <v>866</v>
       </c>
       <c r="I116" s="51"/>
       <c r="J116" s="52"/>
     </row>
     <row r="117" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A117" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>1011</v>
+        <v>990</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="I117" s="51"/>
       <c r="J117" s="52"/>
     </row>
     <row r="118" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A118" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="I118" s="51"/>
       <c r="J118" s="52"/>
     </row>
     <row r="119" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A119" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="C119" s="46" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="I119" s="51"/>
       <c r="J119" s="52"/>
     </row>
     <row r="120" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A120" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="I120" s="51"/>
       <c r="J120" s="52"/>
     </row>
     <row r="121" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A121" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="C121" s="49" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="D121" s="59"/>
       <c r="E121" s="59"/>
       <c r="F121" s="59" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="I121" s="51"/>
       <c r="J121" s="52"/>
     </row>
     <row r="122" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A122" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="I122" s="51"/>
       <c r="J122" s="52"/>
     </row>
     <row r="123" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A123" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="I123" s="51"/>
       <c r="J123" s="52"/>
     </row>
     <row r="124" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A124" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59" t="s">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="I124" s="51"/>
       <c r="J124" s="52"/>
     </row>
     <row r="125" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A125" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="C125" s="54" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="I125" s="51"/>
       <c r="J125" s="52"/>
     </row>
     <row r="126" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A126" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B126" s="48" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="C126" s="54" t="s">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="I126" s="51"/>
       <c r="J126" s="52"/>
     </row>
     <row r="127" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A127" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="C127" s="54" t="s">
-        <v>945</v>
+        <v>924</v>
       </c>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="I127" s="51"/>
       <c r="J127" s="52"/>
     </row>
     <row r="128" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A128" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="C128" s="46" t="s">
-        <v>946</v>
+        <v>925</v>
       </c>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="I128" s="51"/>
       <c r="J128" s="52"/>
     </row>
     <row r="129" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A129" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C129" s="46" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
       <c r="D129" s="59"/>
       <c r="E129" s="59"/>
       <c r="F129" s="59" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="I129" s="51"/>
       <c r="J129" s="52"/>
     </row>
     <row r="130" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A130" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="C130" s="54" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="I130" s="51"/>
       <c r="J130" s="52"/>
     </row>
     <row r="131" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A131" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="C131" s="54" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="D131" s="59"/>
       <c r="E131" s="59"/>
       <c r="F131" s="59" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="I131" s="55"/>
       <c r="J131" s="52"/>
     </row>
     <row r="132" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A132" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="C132" s="54" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="D132" s="59"/>
       <c r="E132" s="59"/>
       <c r="F132" s="59" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="I132" s="55"/>
       <c r="J132" s="52"/>
     </row>
     <row r="133" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A133" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B133" s="48" t="s">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="C133" s="54" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="I133" s="55"/>
       <c r="J133" s="52"/>
     </row>
     <row r="134" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A134" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B134" s="48" t="s">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="C134" s="54" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="I134" s="55"/>
       <c r="J134" s="52"/>
     </row>
     <row r="135" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A135" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>1029</v>
+        <v>1008</v>
       </c>
       <c r="C135" s="54" t="s">
-        <v>953</v>
+        <v>932</v>
       </c>
       <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="I135" s="55"/>
       <c r="J135" s="52"/>
     </row>
     <row r="136" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A136" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>1030</v>
+        <v>1009</v>
       </c>
       <c r="C136" s="54" t="s">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="I136" s="55"/>
       <c r="J136" s="52"/>
     </row>
     <row r="137" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A137" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="C137" s="54" t="s">
-        <v>955</v>
+        <v>934</v>
       </c>
       <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="I137" s="55"/>
       <c r="J137" s="52"/>
     </row>
     <row r="138" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A138" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>1032</v>
+        <v>1011</v>
       </c>
       <c r="C138" s="54" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="D138" s="59"/>
       <c r="E138" s="59"/>
       <c r="F138" s="59" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="I138" s="55"/>
       <c r="J138" s="52"/>
     </row>
     <row r="139" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A139" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>1033</v>
+        <v>1012</v>
       </c>
       <c r="C139" s="56" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="D139" s="59"/>
       <c r="E139" s="59"/>
       <c r="F139" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I139" s="55"/>
       <c r="J139" s="52"/>
     </row>
     <row r="140" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A140" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="D140" s="59"/>
       <c r="E140" s="59"/>
       <c r="F140" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I140" s="51"/>
       <c r="J140" s="52"/>
     </row>
     <row r="141" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A141" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>1035</v>
+        <v>1014</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>959</v>
+        <v>938</v>
       </c>
       <c r="D141" s="59"/>
       <c r="E141" s="59"/>
       <c r="F141" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I141" s="51"/>
       <c r="J141" s="52"/>
     </row>
     <row r="142" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A142" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>1036</v>
+        <v>1015</v>
       </c>
       <c r="C142" s="56" t="s">
-        <v>960</v>
+        <v>939</v>
       </c>
       <c r="D142" s="59"/>
       <c r="E142" s="59"/>
       <c r="F142" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I142" s="51"/>
       <c r="J142" s="52"/>
     </row>
     <row r="143" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A143" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>1037</v>
+        <v>1016</v>
       </c>
       <c r="C143" s="56" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="D143" s="59"/>
       <c r="E143" s="59"/>
       <c r="F143" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I143" s="51"/>
       <c r="J143" s="52"/>
     </row>
     <row r="144" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A144" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="C144" s="56" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59" t="s">
-        <v>909</v>
+        <v>888</v>
       </c>
       <c r="I144" s="51"/>
       <c r="J144" s="52"/>
     </row>
     <row r="145" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A145" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>1039</v>
+        <v>1018</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>963</v>
+        <v>942</v>
       </c>
       <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I145" s="51"/>
       <c r="J145" s="52"/>
     </row>
     <row r="146" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A146" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>1040</v>
+        <v>1019</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>964</v>
+        <v>943</v>
       </c>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I146" s="51"/>
       <c r="J146" s="52"/>
     </row>
     <row r="147" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A147" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>1041</v>
+        <v>1020</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I147" s="55"/>
       <c r="J147" s="52"/>
     </row>
     <row r="148" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A148" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>1042</v>
+        <v>1021</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>966</v>
+        <v>945</v>
       </c>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I148" s="51"/>
       <c r="J148" s="52"/>
     </row>
     <row r="149" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A149" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>967</v>
+        <v>946</v>
       </c>
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I149" s="51"/>
       <c r="J149" s="52"/>
     </row>
     <row r="150" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A150" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>1044</v>
+        <v>1023</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59" t="s">
-        <v>911</v>
+        <v>890</v>
       </c>
       <c r="I150" s="51"/>
       <c r="J150" s="52"/>
     </row>
     <row r="151" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A151" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>1045</v>
+        <v>1024</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="I151" s="51"/>
       <c r="J151" s="52"/>
     </row>
     <row r="152" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A152" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="C152" s="57" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="I152" s="51"/>
       <c r="J152" s="52"/>
     </row>
     <row r="153" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A153" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>1047</v>
+        <v>1026</v>
       </c>
       <c r="C153" s="57" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="I153" s="51"/>
       <c r="J153" s="52"/>
     </row>
     <row r="154" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A154" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>1048</v>
+        <v>1027</v>
       </c>
       <c r="C154" s="57" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="I154" s="51"/>
       <c r="J154" s="52"/>
     </row>
     <row r="155" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A155" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="C155" s="57" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="I155" s="51"/>
       <c r="J155" s="52"/>
     </row>
     <row r="156" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A156" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="C156" s="46" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="D156" s="59"/>
       <c r="E156" s="59"/>
       <c r="F156" s="59" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="I156" s="51"/>
       <c r="J156" s="52"/>
     </row>
     <row r="157" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A157" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="C157" s="46" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="D157" s="59"/>
       <c r="E157" s="59"/>
       <c r="F157" s="59" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="I157" s="51"/>
       <c r="J157" s="52"/>
     </row>
     <row r="158" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A158" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="C158" s="46" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="D158" s="59"/>
       <c r="E158" s="59"/>
       <c r="F158" s="59" t="s">
-        <v>915</v>
+        <v>894</v>
       </c>
       <c r="I158" s="51"/>
       <c r="J158" s="52"/>
     </row>
     <row r="159" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A159" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="D159" s="59"/>
       <c r="E159" s="59"/>
       <c r="F159" s="59" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="I159" s="51"/>
       <c r="J159" s="52"/>
     </row>
     <row r="160" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A160" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>1054</v>
+        <v>1033</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="D160" s="59"/>
       <c r="E160" s="59"/>
       <c r="F160" s="59" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="I160" s="51"/>
       <c r="J160" s="52"/>
     </row>
     <row r="161" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A161" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="D161" s="59"/>
       <c r="E161" s="59"/>
       <c r="F161" s="59" t="s">
-        <v>917</v>
+        <v>896</v>
       </c>
       <c r="I161" s="55"/>
       <c r="J161" s="52"/>
     </row>
     <row r="162" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A162" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B162" s="48" t="s">
-        <v>1056</v>
+        <v>1035</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>980</v>
+        <v>959</v>
       </c>
       <c r="D162" s="59"/>
       <c r="E162" s="59"/>
       <c r="F162" s="59" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="I162" s="55"/>
       <c r="J162" s="52"/>
     </row>
     <row r="163" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A163" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="D163" s="59"/>
       <c r="E163" s="59"/>
       <c r="F163" s="59" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="I163" s="55"/>
       <c r="J163" s="52"/>
     </row>
     <row r="164" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A164" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>1058</v>
+        <v>1037</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="D164" s="59"/>
       <c r="E164" s="59"/>
       <c r="F164" s="59" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="I164" s="55"/>
       <c r="J164" s="52"/>
     </row>
     <row r="165" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A165" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>1059</v>
+        <v>1038</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="D165" s="59"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59" t="s">
-        <v>919</v>
+        <v>898</v>
       </c>
       <c r="I165" s="55"/>
       <c r="J165" s="52"/>
     </row>
     <row r="166" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A166" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>1060</v>
+        <v>1039</v>
       </c>
       <c r="C166" s="58" t="s">
-        <v>984</v>
+        <v>963</v>
       </c>
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="I166" s="55"/>
       <c r="J166" s="52"/>
     </row>
     <row r="167" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A167" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B167" s="48" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="C167" s="58" t="s">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="D167" s="59"/>
       <c r="E167" s="59"/>
       <c r="F167" s="59" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="I167" s="55"/>
       <c r="J167" s="52"/>
     </row>
     <row r="168" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A168" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="C168" s="58" t="s">
-        <v>986</v>
+        <v>965</v>
       </c>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59" t="s">
-        <v>921</v>
+        <v>900</v>
       </c>
       <c r="I168" s="55"/>
       <c r="J168" s="52"/>
     </row>
     <row r="169" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A169" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="C169" s="57" t="s">
-        <v>987</v>
+        <v>966</v>
       </c>
       <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="I169" s="55"/>
       <c r="J169" s="52"/>
     </row>
     <row r="170" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A170" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>1064</v>
+        <v>1043</v>
       </c>
       <c r="C170" s="57" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="D170" s="59"/>
       <c r="E170" s="59"/>
       <c r="F170" s="59" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="I170" s="55"/>
       <c r="J170" s="52"/>
     </row>
     <row r="171" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A171" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>1065</v>
+        <v>1044</v>
       </c>
       <c r="C171" s="57" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="I171" s="55"/>
       <c r="J171" s="52"/>
     </row>
     <row r="172" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A172" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>1066</v>
+        <v>1045</v>
       </c>
       <c r="C172" s="57" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="D172" s="59"/>
       <c r="E172" s="59"/>
       <c r="F172" s="59" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="I172" s="55"/>
       <c r="J172" s="52"/>
     </row>
     <row r="173" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A173" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>1067</v>
+        <v>1046</v>
       </c>
       <c r="C173" s="47" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
       <c r="D173" s="59"/>
       <c r="E173" s="59"/>
       <c r="F173" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I173" s="51"/>
       <c r="J173" s="52"/>
     </row>
     <row r="174" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A174" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B174" s="48" t="s">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="C174" s="47" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="D174" s="59"/>
       <c r="E174" s="59"/>
       <c r="F174" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I174" s="51"/>
       <c r="J174" s="52"/>
     </row>
     <row r="175" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A175" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>1069</v>
+        <v>1048</v>
       </c>
       <c r="C175" s="47" t="s">
-        <v>993</v>
+        <v>972</v>
       </c>
       <c r="D175" s="59"/>
       <c r="E175" s="59"/>
       <c r="F175" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I175" s="51"/>
       <c r="J175" s="52"/>
     </row>
     <row r="176" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A176" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>1070</v>
+        <v>1049</v>
       </c>
       <c r="C176" s="47" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="D176" s="59"/>
       <c r="E176" s="59"/>
       <c r="F176" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I176" s="51"/>
       <c r="J176" s="52"/>
     </row>
     <row r="177" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A177" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B177" s="48" t="s">
-        <v>1071</v>
+        <v>1050</v>
       </c>
       <c r="C177" s="47" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="D177" s="59"/>
       <c r="E177" s="59"/>
       <c r="F177" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I177" s="51"/>
       <c r="J177" s="52"/>
     </row>
     <row r="178" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A178" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>1072</v>
+        <v>1051</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="59" t="s">
-        <v>925</v>
+        <v>904</v>
       </c>
       <c r="I178" s="51"/>
       <c r="J178" s="52"/>
     </row>
     <row r="179" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A179" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>1073</v>
+        <v>1052</v>
       </c>
       <c r="C179" s="47" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="D179" s="59"/>
       <c r="E179" s="59"/>
       <c r="F179" s="59" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="I179" s="55"/>
       <c r="J179" s="52"/>
     </row>
     <row r="180" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A180" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="D180" s="59"/>
       <c r="E180" s="59"/>
       <c r="F180" s="59" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="I180" s="55"/>
       <c r="J180" s="52"/>
     </row>
     <row r="181" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A181" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>1075</v>
+        <v>1054</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>999</v>
+        <v>978</v>
       </c>
       <c r="D181" s="59"/>
       <c r="E181" s="59"/>
       <c r="F181" s="59" t="s">
-        <v>927</v>
+        <v>906</v>
       </c>
       <c r="I181" s="55"/>
       <c r="J181" s="52"/>
     </row>
     <row r="182" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A182" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>1076</v>
+        <v>1055</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>1000</v>
+        <v>979</v>
       </c>
       <c r="D182" s="59"/>
       <c r="E182" s="59"/>
       <c r="F182" s="59" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="I182" s="55"/>
       <c r="J182" s="52"/>
     </row>
     <row r="183" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A183" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>1077</v>
+        <v>1056</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>1001</v>
+        <v>980</v>
       </c>
       <c r="D183" s="59"/>
       <c r="E183" s="59"/>
       <c r="F183" s="59" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="I183" s="51"/>
       <c r="J183" s="52"/>
     </row>
     <row r="184" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A184" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>1078</v>
+        <v>1057</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="D184" s="59"/>
       <c r="E184" s="59"/>
       <c r="F184" s="59" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="I184" s="51"/>
       <c r="J184" s="52"/>
     </row>
     <row r="185" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A185" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>1079</v>
+        <v>1058</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="D185" s="59"/>
       <c r="E185" s="59"/>
       <c r="F185" s="59" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="I185" s="55"/>
       <c r="J185" s="52"/>
     </row>
     <row r="186" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A186" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>1080</v>
+        <v>1059</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="D186" s="59"/>
       <c r="E186" s="59"/>
       <c r="F186" s="59" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="I186" s="55"/>
       <c r="J186" s="52"/>
     </row>
     <row r="187" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A187" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B187" s="48" t="s">
-        <v>1081</v>
+        <v>1060</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>1005</v>
+        <v>984</v>
       </c>
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="59" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="I187" s="55"/>
       <c r="J187" s="52"/>
     </row>
     <row r="188" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A188" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="C188" s="47" t="s">
-        <v>1006</v>
+        <v>985</v>
       </c>
       <c r="D188" s="59"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59" t="s">
-        <v>931</v>
+        <v>910</v>
       </c>
       <c r="I188" s="55"/>
       <c r="J188" s="52"/>
     </row>
     <row r="189" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A189" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>1083</v>
+        <v>1062</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>1007</v>
+        <v>986</v>
       </c>
       <c r="D189" s="59"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="I189" s="55"/>
       <c r="J189" s="52"/>
     </row>
     <row r="190" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A190" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>1084</v>
+        <v>1063</v>
       </c>
       <c r="C190" s="47" t="s">
-        <v>1008</v>
+        <v>987</v>
       </c>
       <c r="D190" s="59"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="I190" s="55"/>
       <c r="J190" s="52"/>
     </row>
     <row r="191" spans="1:10" s="50" customFormat="1" ht="15.6">
       <c r="A191" s="59" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>1085</v>
+        <v>1064</v>
       </c>
       <c r="C191" s="47" t="s">
-        <v>1009</v>
+        <v>988</v>
       </c>
       <c r="D191" s="59"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="I191" s="55"/>
       <c r="J191" s="52"/>
@@ -12336,10 +12336,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="B2" t="s">
-        <v>1086</v>
+        <v>1065</v>
       </c>
       <c r="C2">
         <v>11111111</v>
